--- a/docs/execution_times_and_file_sizes.xlsx
+++ b/docs/execution_times_and_file_sizes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Desktop/wikipedia_cultural_diversity_observatory/github/WCDO/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Desktop/cultural diversity observatory/GitHub/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F5BFF8-C9FF-7549-A3B1-E760A1056D11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F990AB3-B6B4-274C-A0AE-B97D2FEE41A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30080" yWindow="-4960" windowWidth="25600" windowHeight="15540" xr2:uid="{63680216-DC63-6248-95B9-EDD81A71E515}"/>
+    <workbookView xWindow="-25380" yWindow="-3900" windowWidth="20740" windowHeight="12720" xr2:uid="{63680216-DC63-6248-95B9-EDD81A71E515}"/>
   </bookViews>
   <sheets>
     <sheet name="approximate running times" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>function</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>time (hours)</t>
   </si>
   <si>
@@ -106,6 +103,12 @@
   </si>
   <si>
     <t>top_articles.db</t>
+  </si>
+  <si>
+    <t>TOTAL (days)</t>
+  </si>
+  <si>
+    <t>Subtotal (ccc_selection.py)</t>
   </si>
 </sst>
 </file>
@@ -155,11 +158,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +481,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,42 +493,42 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -532,7 +536,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0.08</v>
@@ -540,7 +544,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -548,7 +552,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>54</v>
@@ -556,7 +560,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>192</v>
@@ -564,7 +568,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>40</v>
@@ -572,7 +576,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>24</v>
@@ -580,39 +584,39 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>0.05</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <f>2*24</f>
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -620,10 +624,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -634,15 +638,24 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUM(C2:C9)/24</f>
+        <v>13.503333333333332</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="4">
         <f>SUM(C2:C13)/24</f>
         <v>15.963749999999999</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
     </row>
   </sheetData>

--- a/docs/execution_times_and_file_sizes.xlsx
+++ b/docs/execution_times_and_file_sizes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Desktop/cultural diversity observatory/GitHub/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WCDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F990AB3-B6B4-274C-A0AE-B97D2FEE41A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE11159-90AA-9444-B56B-21983194C3F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25380" yWindow="-3900" windowWidth="20740" windowHeight="12720" xr2:uid="{63680216-DC63-6248-95B9-EDD81A71E515}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="12720" xr2:uid="{63680216-DC63-6248-95B9-EDD81A71E515}"/>
   </bookViews>
   <sheets>
     <sheet name="approximate running times" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>function</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>filtering and creating the definitive ccc</t>
-  </si>
-  <si>
-    <t>download_latest_wikidata_dump</t>
   </si>
   <si>
     <t>wd_dump_iterator</t>
@@ -478,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B382E3D-26FC-7E4C-A3A1-7ECF31DC8FD4}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,7 +490,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -502,28 +499,28 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -531,69 +528,76 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>0.08</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>192</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>0.05</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.05</v>
+        <f>2*24</f>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -601,62 +605,47 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
-        <f>2*24</f>
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUM(C2:C8)/24</f>
+        <v>13.42</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="4">
-        <f>SUM(C2:C9)/24</f>
-        <v>13.503333333333332</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4">
-        <f>SUM(C2:C13)/24</f>
-        <v>15.963749999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
+      <c r="C17" s="4">
+        <f>SUM(C2:C12)/24</f>
+        <v>15.880416666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/execution_times_and_file_sizes.xlsx
+++ b/docs/execution_times_and_file_sizes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WCDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE11159-90AA-9444-B56B-21983194C3F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C71F464-762B-724C-B5A1-478EC7D1C369}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="12720" xr2:uid="{63680216-DC63-6248-95B9-EDD81A71E515}"/>
   </bookViews>
@@ -24,6 +24,49 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Marc Miquel</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{A1D3BB84-D240-1547-922D-1B8043D34E3B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marc Miquel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>here is where we need to save time re-coding the functions.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
@@ -112,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,13 +177,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -155,12 +217,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,11 +537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B382E3D-26FC-7E4C-A3A1-7ECF31DC8FD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B382E3D-26FC-7E4C-A3A1-7ECF31DC8FD4}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,26 +603,26 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>40</v>
       </c>
     </row>
@@ -650,5 +713,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>